--- a/doc/part-list.xlsx
+++ b/doc/part-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\maker-station\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815645D-BF15-4B25-99CA-1187E14485FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5A078-A65E-4F11-A524-3CAA3BE99454}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34335" yWindow="645" windowWidth="22335" windowHeight="15015" xr2:uid="{FB761E39-F356-4341-ADCB-79AF4C5B9345}"/>
+    <workbookView xWindow="31650" yWindow="300" windowWidth="22335" windowHeight="15015" xr2:uid="{FB761E39-F356-4341-ADCB-79AF4C5B9345}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Part No.</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Total Cost at Build:</t>
+  </si>
+  <si>
+    <t>COM-11310</t>
+  </si>
+  <si>
+    <t>Toggle Switch and Cover - Illuminated (Red)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -272,11 +278,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -284,7 +289,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0911A4-D1CB-44E8-99BB-07D800A9FEAF}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +637,7 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -640,7 +645,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -652,10 +657,10 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>87.55</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>E2*F2</f>
         <v>87.55</v>
       </c>
@@ -664,7 +669,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -676,11 +681,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>87.55</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G12" si="0">E3*F3</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="0">E3*F3</f>
         <v>87.55</v>
       </c>
     </row>
@@ -688,7 +693,7 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3055</v>
       </c>
       <c r="C4" t="s">
@@ -700,10 +705,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>35</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -712,7 +717,7 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3708</v>
       </c>
       <c r="C5" t="s">
@@ -724,10 +729,10 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -736,7 +741,7 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2883</v>
       </c>
       <c r="C6" t="s">
@@ -748,10 +753,10 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>4.95</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
@@ -760,7 +765,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
@@ -772,10 +777,10 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>10.19</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>10.19</v>
       </c>
@@ -784,7 +789,7 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -796,10 +801,10 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>35</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -808,7 +813,7 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
@@ -820,10 +825,10 @@
       <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>4.5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
@@ -832,7 +837,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
@@ -844,286 +849,310 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>7.19</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>21.57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="3">
         <v>3174</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>29.95</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>29.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>28.27</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>28.27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>28.27</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" ref="G13:G15" si="1">E13*F13</f>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
         <v>28.27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>49.95</v>
-      </c>
-      <c r="G14" s="3">
-        <f>E14*F14</f>
-        <v>99.9</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>28.27</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ref="G14:G16" si="1">E14*F14</f>
+        <v>28.27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15*F15</f>
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
         <v>17</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>11.64</v>
-      </c>
-      <c r="G16" s="3">
-        <f>E16*F16</f>
-        <v>11.64</v>
-      </c>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.64</v>
+      </c>
+      <c r="G17" s="2">
+        <f>E17*F17</f>
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
-        <f>E17*F17</f>
+      <c r="G18" s="2">
+        <f>E18*F18</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18:G20" si="2">E18*F18</f>
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19:G20" si="2">E19*F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>24</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="6" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <f>SUM(G2:G21)</f>
-        <v>570.33999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>SUM(G2:G22)</f>
+        <v>576.2399999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/part-list.xlsx
+++ b/doc/part-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\maker-station\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5A078-A65E-4F11-A524-3CAA3BE99454}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A0CAF-BE55-48EA-B6FC-628FCE9B1F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="300" windowWidth="22335" windowHeight="15015" xr2:uid="{FB761E39-F356-4341-ADCB-79AF4C5B9345}"/>
+    <workbookView xWindow="22470" yWindow="75" windowWidth="22335" windowHeight="15015" xr2:uid="{FB761E39-F356-4341-ADCB-79AF4C5B9345}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0911A4-D1CB-44E8-99BB-07D800A9FEAF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
